--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Lama2-Dag1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Lama2-Dag1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,19 +82,19 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Lama2</t>
+  </si>
+  <si>
+    <t>Dag1</t>
+  </si>
+  <si>
     <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Lama2</t>
-  </si>
-  <si>
-    <t>Dag1</t>
   </si>
   <si>
     <t>Neutrophils</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,10 +528,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.227606333333333</v>
+        <v>5.258836</v>
       </c>
       <c r="H2">
-        <v>3.682818999999999</v>
+        <v>15.776508</v>
       </c>
       <c r="I2">
-        <v>0.01106481154386902</v>
+        <v>0.0979781472915271</v>
       </c>
       <c r="J2">
-        <v>0.01106481154386902</v>
+        <v>0.09797814729152711</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>11.27642966666667</v>
+        <v>20.125369</v>
       </c>
       <c r="N2">
-        <v>33.829289</v>
+        <v>60.376107</v>
       </c>
       <c r="O2">
-        <v>0.04495771493187357</v>
+        <v>0.2123808897470127</v>
       </c>
       <c r="P2">
-        <v>0.04495771493187357</v>
+        <v>0.2123808897470127</v>
       </c>
       <c r="Q2">
-        <v>13.84301647618789</v>
+        <v>105.836015010484</v>
       </c>
       <c r="R2">
-        <v>124.587148285691</v>
+        <v>952.5241350943561</v>
       </c>
       <c r="S2">
-        <v>0.0004974486431641673</v>
+        <v>0.02080868609753839</v>
       </c>
       <c r="T2">
-        <v>0.0004974486431641674</v>
+        <v>0.02080868609753839</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,10 +590,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.227606333333333</v>
+        <v>5.258836</v>
       </c>
       <c r="H3">
-        <v>3.682818999999999</v>
+        <v>15.776508</v>
       </c>
       <c r="I3">
-        <v>0.01106481154386902</v>
+        <v>0.0979781472915271</v>
       </c>
       <c r="J3">
-        <v>0.01106481154386902</v>
+        <v>0.09797814729152711</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>85.551776</v>
       </c>
       <c r="O3">
-        <v>0.1136947441408982</v>
+        <v>0.3009396135182603</v>
       </c>
       <c r="P3">
-        <v>0.1136947441408982</v>
+        <v>0.3009396135182603</v>
       </c>
       <c r="Q3">
-        <v>35.00796734850488</v>
+        <v>149.9675864975787</v>
       </c>
       <c r="R3">
-        <v>315.071706136544</v>
+        <v>1349.708278478208</v>
       </c>
       <c r="S3">
-        <v>0.001258010917447445</v>
+        <v>0.02948550577914734</v>
       </c>
       <c r="T3">
-        <v>0.001258010917447445</v>
+        <v>0.02948550577914735</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,14 +652,14 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>26</v>
       </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
       <c r="E4">
         <v>3</v>
       </c>
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.227606333333333</v>
+        <v>5.258836</v>
       </c>
       <c r="H4">
-        <v>3.682818999999999</v>
+        <v>15.776508</v>
       </c>
       <c r="I4">
-        <v>0.01106481154386902</v>
+        <v>0.0979781472915271</v>
       </c>
       <c r="J4">
-        <v>0.01106481154386902</v>
+        <v>0.09797814729152711</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.329513</v>
+        <v>4.412681666666667</v>
       </c>
       <c r="N4">
-        <v>15.988539</v>
+        <v>13.238045</v>
       </c>
       <c r="O4">
-        <v>0.02124810186046602</v>
+        <v>0.04656656275653866</v>
       </c>
       <c r="P4">
-        <v>0.02124810186046603</v>
+        <v>0.04656656275653866</v>
       </c>
       <c r="Q4">
-        <v>6.542543912382332</v>
+        <v>23.20556920520666</v>
       </c>
       <c r="R4">
-        <v>58.88289521144099</v>
+        <v>208.85012284686</v>
       </c>
       <c r="S4">
-        <v>0.0002351062427509893</v>
+        <v>0.004562505544620284</v>
       </c>
       <c r="T4">
-        <v>0.0002351062427509893</v>
+        <v>0.004562505544620286</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,13 +714,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.227606333333333</v>
+        <v>5.258836</v>
       </c>
       <c r="H5">
-        <v>3.682818999999999</v>
+        <v>15.776508</v>
       </c>
       <c r="I5">
-        <v>0.01106481154386902</v>
+        <v>0.0979781472915271</v>
       </c>
       <c r="J5">
-        <v>0.01106481154386902</v>
+        <v>0.09797814729152711</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>196.6334516666667</v>
+        <v>30.84356166666667</v>
       </c>
       <c r="N5">
-        <v>589.900355</v>
+        <v>92.53068500000001</v>
       </c>
       <c r="O5">
-        <v>0.783952982230901</v>
+        <v>0.3254888429490918</v>
       </c>
       <c r="P5">
-        <v>0.7839529822309012</v>
+        <v>0.3254888429490919</v>
       </c>
       <c r="Q5">
-        <v>241.3884706111939</v>
+        <v>162.2012324608867</v>
       </c>
       <c r="R5">
-        <v>2172.496235500745</v>
+        <v>1459.81109214798</v>
       </c>
       <c r="S5">
-        <v>0.008674292007639018</v>
+        <v>0.03189079379621484</v>
       </c>
       <c r="T5">
-        <v>0.008674292007639021</v>
+        <v>0.03189079379621486</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,10 +776,10 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>27</v>
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.227606333333333</v>
+        <v>5.258836</v>
       </c>
       <c r="H6">
-        <v>3.682818999999999</v>
+        <v>15.776508</v>
       </c>
       <c r="I6">
-        <v>0.01106481154386902</v>
+        <v>0.0979781472915271</v>
       </c>
       <c r="J6">
-        <v>0.01106481154386902</v>
+        <v>0.09797814729152711</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.355851333333333</v>
+        <v>3.424022666666667</v>
       </c>
       <c r="N6">
-        <v>10.067554</v>
+        <v>10.272068</v>
       </c>
       <c r="O6">
-        <v>0.01337935960738765</v>
+        <v>0.03613334893191801</v>
       </c>
       <c r="P6">
-        <v>0.01337935960738765</v>
+        <v>0.03613334893191802</v>
       </c>
       <c r="Q6">
-        <v>4.11966435052511</v>
+        <v>18.00637366428267</v>
       </c>
       <c r="R6">
-        <v>37.07697915472599</v>
+        <v>162.057362978544</v>
       </c>
       <c r="S6">
-        <v>0.0001480400926333978</v>
+        <v>0.003540278583787606</v>
       </c>
       <c r="T6">
-        <v>0.0001480400926333978</v>
+        <v>0.003540278583787607</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,13 +838,13 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.227606333333333</v>
+        <v>5.258836</v>
       </c>
       <c r="H7">
-        <v>3.682818999999999</v>
+        <v>15.776508</v>
       </c>
       <c r="I7">
-        <v>0.01106481154386902</v>
+        <v>0.0979781472915271</v>
       </c>
       <c r="J7">
-        <v>0.01106481154386902</v>
+        <v>0.09797814729152711</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>5.710511999999999</v>
+        <v>7.437840333333334</v>
       </c>
       <c r="N7">
-        <v>17.131536</v>
+        <v>22.313521</v>
       </c>
       <c r="O7">
-        <v>0.02276709722847351</v>
+        <v>0.07849074209717849</v>
       </c>
       <c r="P7">
-        <v>0.02276709722847351</v>
+        <v>0.0784907420971785</v>
       </c>
       <c r="Q7">
-        <v>7.010260697775998</v>
+        <v>39.11438250718533</v>
       </c>
       <c r="R7">
-        <v>63.09234627998398</v>
+        <v>352.029442564668</v>
       </c>
       <c r="S7">
-        <v>0.000251913640234002</v>
+        <v>0.00769037749021862</v>
       </c>
       <c r="T7">
-        <v>0.0002519136402340021</v>
+        <v>0.007690377490218623</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,10 +900,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -921,10 +921,10 @@
         <v>103.0872</v>
       </c>
       <c r="I8">
-        <v>0.3097193863138902</v>
+        <v>0.6402109304207948</v>
       </c>
       <c r="J8">
-        <v>0.3097193863138902</v>
+        <v>0.6402109304207948</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>11.27642966666667</v>
+        <v>20.125369</v>
       </c>
       <c r="N8">
-        <v>33.829289</v>
+        <v>60.376107</v>
       </c>
       <c r="O8">
-        <v>0.04495771493187357</v>
+        <v>0.2123808897470127</v>
       </c>
       <c r="P8">
-        <v>0.04495771493187357</v>
+        <v>0.2123808897470127</v>
       </c>
       <c r="Q8">
-        <v>387.4851867778667</v>
+        <v>691.5559797256001</v>
       </c>
       <c r="R8">
-        <v>3487.3666810008</v>
+        <v>6224.0038175304</v>
       </c>
       <c r="S8">
-        <v>0.0139242758787747</v>
+        <v>0.1359685670285312</v>
       </c>
       <c r="T8">
-        <v>0.0139242758787747</v>
+        <v>0.1359685670285313</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,10 +962,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -983,10 +983,10 @@
         <v>103.0872</v>
       </c>
       <c r="I9">
-        <v>0.3097193863138902</v>
+        <v>0.6402109304207948</v>
       </c>
       <c r="J9">
-        <v>0.3097193863138902</v>
+        <v>0.6402109304207948</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>85.551776</v>
       </c>
       <c r="O9">
-        <v>0.1136947441408982</v>
+        <v>0.3009396135182603</v>
       </c>
       <c r="P9">
-        <v>0.1136947441408982</v>
+        <v>0.3009396135182603</v>
       </c>
       <c r="Q9">
         <v>979.9214492074667</v>
@@ -1013,10 +1013,10 @@
         <v>8819.293042867201</v>
       </c>
       <c r="S9">
-        <v>0.03521346638243376</v>
+        <v>0.1926648299709998</v>
       </c>
       <c r="T9">
-        <v>0.03521346638243376</v>
+        <v>0.1926648299709998</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,13 +1024,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
         <v>26</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1045,10 +1045,10 @@
         <v>103.0872</v>
       </c>
       <c r="I10">
-        <v>0.3097193863138902</v>
+        <v>0.6402109304207948</v>
       </c>
       <c r="J10">
-        <v>0.3097193863138902</v>
+        <v>0.6402109304207948</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.329513</v>
+        <v>4.412681666666667</v>
       </c>
       <c r="N10">
-        <v>15.988539</v>
+        <v>13.238045</v>
       </c>
       <c r="O10">
-        <v>0.02124810186046602</v>
+        <v>0.04656656275653866</v>
       </c>
       <c r="P10">
-        <v>0.02124810186046603</v>
+        <v>0.04656656275653866</v>
       </c>
       <c r="Q10">
-        <v>183.1348575112</v>
+        <v>151.6303325026667</v>
       </c>
       <c r="R10">
-        <v>1648.2137176008</v>
+        <v>1364.672992524</v>
       </c>
       <c r="S10">
-        <v>0.006580949068558565</v>
+        <v>0.02981242246886194</v>
       </c>
       <c r="T10">
-        <v>0.006580949068558566</v>
+        <v>0.02981242246886195</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,13 +1086,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1107,10 +1107,10 @@
         <v>103.0872</v>
       </c>
       <c r="I11">
-        <v>0.3097193863138902</v>
+        <v>0.6402109304207948</v>
       </c>
       <c r="J11">
-        <v>0.3097193863138902</v>
+        <v>0.6402109304207948</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>196.6334516666667</v>
+        <v>30.84356166666667</v>
       </c>
       <c r="N11">
-        <v>589.900355</v>
+        <v>92.53068500000001</v>
       </c>
       <c r="O11">
-        <v>0.783952982230901</v>
+        <v>0.3254888429490918</v>
       </c>
       <c r="P11">
-        <v>0.7839529822309012</v>
+        <v>0.3254888429490919</v>
       </c>
       <c r="Q11">
-        <v>6756.797319550667</v>
+        <v>1059.858803414667</v>
       </c>
       <c r="R11">
-        <v>60811.175875956</v>
+        <v>9538.729230732</v>
       </c>
       <c r="S11">
-        <v>0.2428054365554987</v>
+        <v>0.208381514986026</v>
       </c>
       <c r="T11">
-        <v>0.2428054365554987</v>
+        <v>0.2083815149860261</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,10 +1148,10 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>27</v>
@@ -1169,10 +1169,10 @@
         <v>103.0872</v>
       </c>
       <c r="I12">
-        <v>0.3097193863138902</v>
+        <v>0.6402109304207948</v>
       </c>
       <c r="J12">
-        <v>0.3097193863138902</v>
+        <v>0.6402109304207948</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.355851333333333</v>
+        <v>3.424022666666667</v>
       </c>
       <c r="N12">
-        <v>10.067554</v>
+        <v>10.272068</v>
       </c>
       <c r="O12">
-        <v>0.01337935960738765</v>
+        <v>0.03613334893191801</v>
       </c>
       <c r="P12">
-        <v>0.01337935960738765</v>
+        <v>0.03613334893191802</v>
       </c>
       <c r="Q12">
-        <v>115.3151058565333</v>
+        <v>117.6576364810667</v>
       </c>
       <c r="R12">
-        <v>1037.8359527088</v>
+        <v>1058.9187283296</v>
       </c>
       <c r="S12">
-        <v>0.004143847046872954</v>
+        <v>0.02313296493892246</v>
       </c>
       <c r="T12">
-        <v>0.004143847046872954</v>
+        <v>0.02313296493892247</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,13 +1210,13 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1231,10 +1231,10 @@
         <v>103.0872</v>
       </c>
       <c r="I13">
-        <v>0.3097193863138902</v>
+        <v>0.6402109304207948</v>
       </c>
       <c r="J13">
-        <v>0.3097193863138902</v>
+        <v>0.6402109304207948</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>5.710511999999999</v>
+        <v>7.437840333333334</v>
       </c>
       <c r="N13">
-        <v>17.131536</v>
+        <v>22.313521</v>
       </c>
       <c r="O13">
-        <v>0.02276709722847351</v>
+        <v>0.07849074209717849</v>
       </c>
       <c r="P13">
-        <v>0.02276709722847351</v>
+        <v>0.0784907420971785</v>
       </c>
       <c r="Q13">
-        <v>196.2268975488</v>
+        <v>255.5820446701334</v>
       </c>
       <c r="R13">
-        <v>1766.0420779392</v>
+        <v>2300.2384020312</v>
       </c>
       <c r="S13">
-        <v>0.007051411381751484</v>
+        <v>0.05025063102745329</v>
       </c>
       <c r="T13">
-        <v>0.007051411381751486</v>
+        <v>0.05025063102745329</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,31 +1272,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.04110466666666667</v>
+        <v>14.03809866666666</v>
       </c>
       <c r="H14">
-        <v>0.123314</v>
+        <v>42.114296</v>
       </c>
       <c r="I14">
-        <v>0.0003704896088351517</v>
+        <v>0.2615458817988727</v>
       </c>
       <c r="J14">
-        <v>0.0003704896088351518</v>
+        <v>0.2615458817988728</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>11.27642966666667</v>
+        <v>20.125369</v>
       </c>
       <c r="N14">
-        <v>33.829289</v>
+        <v>60.376107</v>
       </c>
       <c r="O14">
-        <v>0.04495771493187357</v>
+        <v>0.2123808897470127</v>
       </c>
       <c r="P14">
-        <v>0.04495771493187357</v>
+        <v>0.2123808897470127</v>
       </c>
       <c r="Q14">
-        <v>0.4635138826384445</v>
+        <v>282.5219157250747</v>
       </c>
       <c r="R14">
-        <v>4.171624943746001</v>
+        <v>2542.697241525672</v>
       </c>
       <c r="S14">
-        <v>1.66563662192321E-05</v>
+        <v>0.05554734708611161</v>
       </c>
       <c r="T14">
-        <v>1.66563662192321E-05</v>
+        <v>0.05554734708611163</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,31 +1334,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.04110466666666667</v>
+        <v>14.03809866666666</v>
       </c>
       <c r="H15">
-        <v>0.123314</v>
+        <v>42.114296</v>
       </c>
       <c r="I15">
-        <v>0.0003704896088351517</v>
+        <v>0.2615458817988727</v>
       </c>
       <c r="J15">
-        <v>0.0003704896088351518</v>
+        <v>0.2615458817988728</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>85.551776</v>
       </c>
       <c r="O15">
-        <v>0.1136947441408982</v>
+        <v>0.3009396135182603</v>
       </c>
       <c r="P15">
-        <v>0.1136947441408982</v>
+        <v>0.3009396135182603</v>
       </c>
       <c r="Q15">
-        <v>1.172192411740445</v>
+        <v>400.3280908655217</v>
       </c>
       <c r="R15">
-        <v>10.549731705664</v>
+        <v>3602.952817789696</v>
       </c>
       <c r="S15">
-        <v>4.212272128337404E-05</v>
+        <v>0.07870951658584534</v>
       </c>
       <c r="T15">
-        <v>4.212272128337405E-05</v>
+        <v>0.07870951658584537</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,31 +1396,31 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>26</v>
       </c>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.04110466666666667</v>
+        <v>14.03809866666666</v>
       </c>
       <c r="H16">
-        <v>0.123314</v>
+        <v>42.114296</v>
       </c>
       <c r="I16">
-        <v>0.0003704896088351517</v>
+        <v>0.2615458817988727</v>
       </c>
       <c r="J16">
-        <v>0.0003704896088351518</v>
+        <v>0.2615458817988728</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>5.329513</v>
+        <v>4.412681666666667</v>
       </c>
       <c r="N16">
-        <v>15.988539</v>
+        <v>13.238045</v>
       </c>
       <c r="O16">
-        <v>0.02124810186046602</v>
+        <v>0.04656656275653866</v>
       </c>
       <c r="P16">
-        <v>0.02124810186046603</v>
+        <v>0.04656656275653866</v>
       </c>
       <c r="Q16">
-        <v>0.2190678553606667</v>
+        <v>61.94566062125777</v>
       </c>
       <c r="R16">
-        <v>1.971610698246</v>
+        <v>557.5109455913199</v>
       </c>
       <c r="S16">
-        <v>7.872200946773517E-06</v>
+        <v>0.01217929271850145</v>
       </c>
       <c r="T16">
-        <v>7.872200946773519E-06</v>
+        <v>0.01217929271850145</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,31 +1458,31 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.04110466666666667</v>
+        <v>14.03809866666666</v>
       </c>
       <c r="H17">
-        <v>0.123314</v>
+        <v>42.114296</v>
       </c>
       <c r="I17">
-        <v>0.0003704896088351517</v>
+        <v>0.2615458817988727</v>
       </c>
       <c r="J17">
-        <v>0.0003704896088351518</v>
+        <v>0.2615458817988728</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>196.6334516666667</v>
+        <v>30.84356166666667</v>
       </c>
       <c r="N17">
-        <v>589.900355</v>
+        <v>92.53068500000001</v>
       </c>
       <c r="O17">
-        <v>0.783952982230901</v>
+        <v>0.3254888429490918</v>
       </c>
       <c r="P17">
-        <v>0.7839529822309012</v>
+        <v>0.3254888429490919</v>
       </c>
       <c r="Q17">
-        <v>8.082552486274446</v>
+        <v>432.9849619080844</v>
       </c>
       <c r="R17">
-        <v>72.74297237647001</v>
+        <v>3896.86465717276</v>
       </c>
       <c r="S17">
-        <v>0.0002904464337318772</v>
+        <v>0.08513026644481501</v>
       </c>
       <c r="T17">
-        <v>0.0002904464337318773</v>
+        <v>0.08513026644481504</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,31 +1520,31 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D18" t="s">
         <v>27</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F18">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0.04110466666666667</v>
+        <v>14.03809866666666</v>
       </c>
       <c r="H18">
-        <v>0.123314</v>
+        <v>42.114296</v>
       </c>
       <c r="I18">
-        <v>0.0003704896088351517</v>
+        <v>0.2615458817988727</v>
       </c>
       <c r="J18">
-        <v>0.0003704896088351518</v>
+        <v>0.2615458817988728</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>3.355851333333333</v>
+        <v>3.424022666666667</v>
       </c>
       <c r="N18">
-        <v>10.067554</v>
+        <v>10.272068</v>
       </c>
       <c r="O18">
-        <v>0.01337935960738765</v>
+        <v>0.03613334893191801</v>
       </c>
       <c r="P18">
-        <v>0.01337935960738765</v>
+        <v>0.03613334893191802</v>
       </c>
       <c r="Q18">
-        <v>0.1379411504395556</v>
+        <v>48.06676803156978</v>
       </c>
       <c r="R18">
-        <v>1.241470353956</v>
+        <v>432.600912284128</v>
       </c>
       <c r="S18">
-        <v>4.956913707405881E-06</v>
+        <v>0.009450528608744853</v>
       </c>
       <c r="T18">
-        <v>4.956913707405881E-06</v>
+        <v>0.009450528608744856</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,31 +1582,31 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F19">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>0.04110466666666667</v>
+        <v>14.03809866666666</v>
       </c>
       <c r="H19">
-        <v>0.123314</v>
+        <v>42.114296</v>
       </c>
       <c r="I19">
-        <v>0.0003704896088351517</v>
+        <v>0.2615458817988727</v>
       </c>
       <c r="J19">
-        <v>0.0003704896088351518</v>
+        <v>0.2615458817988728</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>5.710511999999999</v>
+        <v>7.437840333333334</v>
       </c>
       <c r="N19">
-        <v>17.131536</v>
+        <v>22.313521</v>
       </c>
       <c r="O19">
-        <v>0.02276709722847351</v>
+        <v>0.07849074209717849</v>
       </c>
       <c r="P19">
-        <v>0.02276709722847351</v>
+        <v>0.0784907420971785</v>
       </c>
       <c r="Q19">
-        <v>0.234728692256</v>
+        <v>104.4131364662462</v>
       </c>
       <c r="R19">
-        <v>2.112558230304</v>
+        <v>939.7182281962159</v>
       </c>
       <c r="S19">
-        <v>8.434972946489016E-06</v>
+        <v>0.02052893035485445</v>
       </c>
       <c r="T19">
-        <v>8.43497294648902E-06</v>
+        <v>0.02052893035485446</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,31 +1644,31 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G20">
-        <v>75.23876733333334</v>
+        <v>0.01422566666666667</v>
       </c>
       <c r="H20">
-        <v>225.716302</v>
+        <v>0.042677</v>
       </c>
       <c r="I20">
-        <v>0.6781512596760869</v>
+        <v>0.0002650404888052858</v>
       </c>
       <c r="J20">
-        <v>0.6781512596760869</v>
+        <v>0.0002650404888052858</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>11.27642966666667</v>
+        <v>20.125369</v>
       </c>
       <c r="N20">
-        <v>33.829289</v>
+        <v>60.376107</v>
       </c>
       <c r="O20">
-        <v>0.04495771493187357</v>
+        <v>0.2123808897470127</v>
       </c>
       <c r="P20">
-        <v>0.04495771493187357</v>
+        <v>0.2123808897470127</v>
       </c>
       <c r="Q20">
-        <v>848.4246680410311</v>
+        <v>0.2862967909376667</v>
       </c>
       <c r="R20">
-        <v>7635.822012369279</v>
+        <v>2.576671118439</v>
       </c>
       <c r="S20">
-        <v>0.03048813101320848</v>
+        <v>5.628953483144977E-05</v>
       </c>
       <c r="T20">
-        <v>0.03048813101320849</v>
+        <v>5.628953483144977E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,31 +1706,31 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
       </c>
       <c r="E21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G21">
-        <v>75.23876733333334</v>
+        <v>0.01422566666666667</v>
       </c>
       <c r="H21">
-        <v>225.716302</v>
+        <v>0.042677</v>
       </c>
       <c r="I21">
-        <v>0.6781512596760869</v>
+        <v>0.0002650404888052858</v>
       </c>
       <c r="J21">
-        <v>0.6781512596760869</v>
+        <v>0.0002650404888052858</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>85.551776</v>
       </c>
       <c r="O21">
-        <v>0.1136947441408982</v>
+        <v>0.3009396135182603</v>
       </c>
       <c r="P21">
-        <v>0.1136947441408982</v>
+        <v>0.3009396135182603</v>
       </c>
       <c r="Q21">
-        <v>2145.603389805817</v>
+        <v>0.4056770160391111</v>
       </c>
       <c r="R21">
-        <v>19310.43050825235</v>
+        <v>3.651093144352</v>
       </c>
       <c r="S21">
-        <v>0.07710223395770052</v>
+        <v>7.97611822677535E-05</v>
       </c>
       <c r="T21">
-        <v>0.07710223395770054</v>
+        <v>7.976118226775351E-05</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,31 +1768,31 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" t="s">
         <v>26</v>
       </c>
-      <c r="D22" t="s">
-        <v>22</v>
-      </c>
       <c r="E22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G22">
-        <v>75.23876733333334</v>
+        <v>0.01422566666666667</v>
       </c>
       <c r="H22">
-        <v>225.716302</v>
+        <v>0.042677</v>
       </c>
       <c r="I22">
-        <v>0.6781512596760869</v>
+        <v>0.0002650404888052858</v>
       </c>
       <c r="J22">
-        <v>0.6781512596760869</v>
+        <v>0.0002650404888052858</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>5.329513</v>
+        <v>4.412681666666667</v>
       </c>
       <c r="N22">
-        <v>15.988539</v>
+        <v>13.238045</v>
       </c>
       <c r="O22">
-        <v>0.02124810186046602</v>
+        <v>0.04656656275653866</v>
       </c>
       <c r="P22">
-        <v>0.02124810186046603</v>
+        <v>0.04656656275653866</v>
       </c>
       <c r="Q22">
-        <v>400.9859886069754</v>
+        <v>0.06277333849611111</v>
       </c>
       <c r="R22">
-        <v>3608.873897462778</v>
+        <v>0.564960046465</v>
       </c>
       <c r="S22">
-        <v>0.01440942704240084</v>
+        <v>1.234202455497502E-05</v>
       </c>
       <c r="T22">
-        <v>0.01440942704240084</v>
+        <v>1.234202455497503E-05</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,31 +1830,31 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G23">
-        <v>75.23876733333334</v>
+        <v>0.01422566666666667</v>
       </c>
       <c r="H23">
-        <v>225.716302</v>
+        <v>0.042677</v>
       </c>
       <c r="I23">
-        <v>0.6781512596760869</v>
+        <v>0.0002650404888052858</v>
       </c>
       <c r="J23">
-        <v>0.6781512596760869</v>
+        <v>0.0002650404888052858</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>196.6334516666667</v>
+        <v>30.84356166666667</v>
       </c>
       <c r="N23">
-        <v>589.900355</v>
+        <v>92.53068500000001</v>
       </c>
       <c r="O23">
-        <v>0.783952982230901</v>
+        <v>0.3254888429490918</v>
       </c>
       <c r="P23">
-        <v>0.7839529822309012</v>
+        <v>0.3254888429490919</v>
       </c>
       <c r="Q23">
-        <v>14794.45851989858</v>
+        <v>0.4387702270827778</v>
       </c>
       <c r="R23">
-        <v>133150.1266790872</v>
+        <v>3.948932043745</v>
       </c>
       <c r="S23">
-        <v>0.5316387024267105</v>
+        <v>8.62677220358942E-05</v>
       </c>
       <c r="T23">
-        <v>0.5316387024267106</v>
+        <v>8.626772203589421E-05</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,31 +1892,31 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D24" t="s">
         <v>27</v>
       </c>
       <c r="E24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G24">
-        <v>75.23876733333334</v>
+        <v>0.01422566666666667</v>
       </c>
       <c r="H24">
-        <v>225.716302</v>
+        <v>0.042677</v>
       </c>
       <c r="I24">
-        <v>0.6781512596760869</v>
+        <v>0.0002650404888052858</v>
       </c>
       <c r="J24">
-        <v>0.6781512596760869</v>
+        <v>0.0002650404888052858</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>3.355851333333333</v>
+        <v>3.424022666666667</v>
       </c>
       <c r="N24">
-        <v>10.067554</v>
+        <v>10.272068</v>
       </c>
       <c r="O24">
-        <v>0.01337935960738765</v>
+        <v>0.03613334893191801</v>
       </c>
       <c r="P24">
-        <v>0.01337935960738765</v>
+        <v>0.03613334893191802</v>
       </c>
       <c r="Q24">
-        <v>252.4901176739232</v>
+        <v>0.04870900511511111</v>
       </c>
       <c r="R24">
-        <v>2272.411059065308</v>
+        <v>0.438381046036</v>
       </c>
       <c r="S24">
-        <v>0.009073229571409292</v>
+        <v>9.576800463087503E-06</v>
       </c>
       <c r="T24">
-        <v>0.009073229571409292</v>
+        <v>9.576800463087504E-06</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,31 +1954,31 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G25">
-        <v>75.23876733333334</v>
+        <v>0.01422566666666667</v>
       </c>
       <c r="H25">
-        <v>225.716302</v>
+        <v>0.042677</v>
       </c>
       <c r="I25">
-        <v>0.6781512596760869</v>
+        <v>0.0002650404888052858</v>
       </c>
       <c r="J25">
-        <v>0.6781512596760869</v>
+        <v>0.0002650404888052858</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,400 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>5.710511999999999</v>
+        <v>7.437840333333334</v>
       </c>
       <c r="N25">
-        <v>17.131536</v>
+        <v>22.313521</v>
       </c>
       <c r="O25">
-        <v>0.02276709722847351</v>
+        <v>0.07849074209717849</v>
       </c>
       <c r="P25">
-        <v>0.02276709722847351</v>
+        <v>0.0784907420971785</v>
       </c>
       <c r="Q25">
-        <v>429.651883722208</v>
+        <v>0.1058082373018889</v>
       </c>
       <c r="R25">
-        <v>3866.866953499872</v>
+        <v>0.952274135717</v>
       </c>
       <c r="S25">
-        <v>0.01543953566465726</v>
+        <v>2.080322465212581E-05</v>
       </c>
       <c r="T25">
-        <v>0.01543953566465726</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" t="s">
-        <v>20</v>
-      </c>
-      <c r="E26">
-        <v>2</v>
-      </c>
-      <c r="F26">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G26">
-        <v>0.077003</v>
-      </c>
-      <c r="H26">
-        <v>0.231009</v>
-      </c>
-      <c r="I26">
-        <v>0.0006940528573187113</v>
-      </c>
-      <c r="J26">
-        <v>0.0006940528573187114</v>
-      </c>
-      <c r="K26">
-        <v>3</v>
-      </c>
-      <c r="L26">
-        <v>1</v>
-      </c>
-      <c r="M26">
-        <v>11.27642966666667</v>
-      </c>
-      <c r="N26">
-        <v>33.829289</v>
-      </c>
-      <c r="O26">
-        <v>0.04495771493187357</v>
-      </c>
-      <c r="P26">
-        <v>0.04495771493187357</v>
-      </c>
-      <c r="Q26">
-        <v>0.8683189136223334</v>
-      </c>
-      <c r="R26">
-        <v>7.814870222601002</v>
-      </c>
-      <c r="S26">
-        <v>3.120303050698694E-05</v>
-      </c>
-      <c r="T26">
-        <v>3.120303050698695E-05</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20">
-      <c r="A27" t="s">
-        <v>24</v>
-      </c>
-      <c r="B27" t="s">
-        <v>25</v>
-      </c>
-      <c r="C27" t="s">
-        <v>26</v>
-      </c>
-      <c r="D27" t="s">
-        <v>21</v>
-      </c>
-      <c r="E27">
-        <v>2</v>
-      </c>
-      <c r="F27">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G27">
-        <v>0.077003</v>
-      </c>
-      <c r="H27">
-        <v>0.231009</v>
-      </c>
-      <c r="I27">
-        <v>0.0006940528573187113</v>
-      </c>
-      <c r="J27">
-        <v>0.0006940528573187114</v>
-      </c>
-      <c r="K27">
-        <v>3</v>
-      </c>
-      <c r="L27">
-        <v>1</v>
-      </c>
-      <c r="M27">
-        <v>28.51725866666667</v>
-      </c>
-      <c r="N27">
-        <v>85.551776</v>
-      </c>
-      <c r="O27">
-        <v>0.1136947441408982</v>
-      </c>
-      <c r="P27">
-        <v>0.1136947441408982</v>
-      </c>
-      <c r="Q27">
-        <v>2.195914469109333</v>
-      </c>
-      <c r="R27">
-        <v>19.763230221984</v>
-      </c>
-      <c r="S27">
-        <v>7.891016203311021E-05</v>
-      </c>
-      <c r="T27">
-        <v>7.891016203311022E-05</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20">
-      <c r="A28" t="s">
-        <v>24</v>
-      </c>
-      <c r="B28" t="s">
-        <v>25</v>
-      </c>
-      <c r="C28" t="s">
-        <v>26</v>
-      </c>
-      <c r="D28" t="s">
-        <v>22</v>
-      </c>
-      <c r="E28">
-        <v>2</v>
-      </c>
-      <c r="F28">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G28">
-        <v>0.077003</v>
-      </c>
-      <c r="H28">
-        <v>0.231009</v>
-      </c>
-      <c r="I28">
-        <v>0.0006940528573187113</v>
-      </c>
-      <c r="J28">
-        <v>0.0006940528573187114</v>
-      </c>
-      <c r="K28">
-        <v>3</v>
-      </c>
-      <c r="L28">
-        <v>1</v>
-      </c>
-      <c r="M28">
-        <v>5.329513</v>
-      </c>
-      <c r="N28">
-        <v>15.988539</v>
-      </c>
-      <c r="O28">
-        <v>0.02124810186046602</v>
-      </c>
-      <c r="P28">
-        <v>0.02124810186046603</v>
-      </c>
-      <c r="Q28">
-        <v>0.410388489539</v>
-      </c>
-      <c r="R28">
-        <v>3.693496405851</v>
-      </c>
-      <c r="S28">
-        <v>1.474730580885547E-05</v>
-      </c>
-      <c r="T28">
-        <v>1.474730580885547E-05</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20">
-      <c r="A29" t="s">
-        <v>24</v>
-      </c>
-      <c r="B29" t="s">
-        <v>25</v>
-      </c>
-      <c r="C29" t="s">
-        <v>26</v>
-      </c>
-      <c r="D29" t="s">
-        <v>23</v>
-      </c>
-      <c r="E29">
-        <v>2</v>
-      </c>
-      <c r="F29">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G29">
-        <v>0.077003</v>
-      </c>
-      <c r="H29">
-        <v>0.231009</v>
-      </c>
-      <c r="I29">
-        <v>0.0006940528573187113</v>
-      </c>
-      <c r="J29">
-        <v>0.0006940528573187114</v>
-      </c>
-      <c r="K29">
-        <v>3</v>
-      </c>
-      <c r="L29">
-        <v>1</v>
-      </c>
-      <c r="M29">
-        <v>196.6334516666667</v>
-      </c>
-      <c r="N29">
-        <v>589.900355</v>
-      </c>
-      <c r="O29">
-        <v>0.783952982230901</v>
-      </c>
-      <c r="P29">
-        <v>0.7839529822309012</v>
-      </c>
-      <c r="Q29">
-        <v>15.14136567868833</v>
-      </c>
-      <c r="R29">
-        <v>136.272291108195</v>
-      </c>
-      <c r="S29">
-        <v>0.0005441048073208817</v>
-      </c>
-      <c r="T29">
-        <v>0.0005441048073208819</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20">
-      <c r="A30" t="s">
-        <v>24</v>
-      </c>
-      <c r="B30" t="s">
-        <v>25</v>
-      </c>
-      <c r="C30" t="s">
-        <v>26</v>
-      </c>
-      <c r="D30" t="s">
-        <v>27</v>
-      </c>
-      <c r="E30">
-        <v>2</v>
-      </c>
-      <c r="F30">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G30">
-        <v>0.077003</v>
-      </c>
-      <c r="H30">
-        <v>0.231009</v>
-      </c>
-      <c r="I30">
-        <v>0.0006940528573187113</v>
-      </c>
-      <c r="J30">
-        <v>0.0006940528573187114</v>
-      </c>
-      <c r="K30">
-        <v>3</v>
-      </c>
-      <c r="L30">
-        <v>1</v>
-      </c>
-      <c r="M30">
-        <v>3.355851333333333</v>
-      </c>
-      <c r="N30">
-        <v>10.067554</v>
-      </c>
-      <c r="O30">
-        <v>0.01337935960738765</v>
-      </c>
-      <c r="P30">
-        <v>0.01337935960738765</v>
-      </c>
-      <c r="Q30">
-        <v>0.2584106202206667</v>
-      </c>
-      <c r="R30">
-        <v>2.325695581986</v>
-      </c>
-      <c r="S30">
-        <v>9.285982764601952E-06</v>
-      </c>
-      <c r="T30">
-        <v>9.285982764601954E-06</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20">
-      <c r="A31" t="s">
-        <v>24</v>
-      </c>
-      <c r="B31" t="s">
-        <v>25</v>
-      </c>
-      <c r="C31" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" t="s">
-        <v>24</v>
-      </c>
-      <c r="E31">
-        <v>2</v>
-      </c>
-      <c r="F31">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G31">
-        <v>0.077003</v>
-      </c>
-      <c r="H31">
-        <v>0.231009</v>
-      </c>
-      <c r="I31">
-        <v>0.0006940528573187113</v>
-      </c>
-      <c r="J31">
-        <v>0.0006940528573187114</v>
-      </c>
-      <c r="K31">
-        <v>3</v>
-      </c>
-      <c r="L31">
-        <v>1</v>
-      </c>
-      <c r="M31">
-        <v>5.710511999999999</v>
-      </c>
-      <c r="N31">
-        <v>17.131536</v>
-      </c>
-      <c r="O31">
-        <v>0.02276709722847351</v>
-      </c>
-      <c r="P31">
-        <v>0.02276709722847351</v>
-      </c>
-      <c r="Q31">
-        <v>0.4397265555359999</v>
-      </c>
-      <c r="R31">
-        <v>3.957538999824</v>
-      </c>
-      <c r="S31">
-        <v>1.580156888427495E-05</v>
-      </c>
-      <c r="T31">
-        <v>1.580156888427495E-05</v>
+        <v>2.080322465212581E-05</v>
       </c>
     </row>
   </sheetData>
